--- a/data/trans_orig/IP07A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0364609-AAD7-4177-BFF7-A154B6477247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73D5FFF-820C-4FC8-A9CC-734052C3C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B288299-A60B-4827-991B-92929AEEDC0A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23CAD559-5354-4C6C-8722-5A5BEC3A98C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="497">
   <si>
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2007 (Tasa respuesta: 47,05%)</t>
   </si>
@@ -76,1447 +76,1459 @@
     <t>8,4%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>11,37%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>71,65%</t>
+    <t>71,43%</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F21148-06DA-4BAB-9D81-EFD546A93E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C6A92E-1E70-4034-9334-122E09AEB332}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2220,13 +2232,13 @@
         <v>6408</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2235,7 +2247,7 @@
         <v>11686</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>47</v>
@@ -2411,13 +2423,13 @@
         <v>4683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2426,13 +2438,13 @@
         <v>6232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -2441,13 +2453,13 @@
         <v>10915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2474,13 @@
         <v>7638</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2477,13 +2489,13 @@
         <v>10975</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -2492,13 +2504,13 @@
         <v>18613</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2525,13 @@
         <v>25997</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2528,13 +2540,13 @@
         <v>25093</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -2543,13 +2555,13 @@
         <v>51089</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2576,13 @@
         <v>191697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>229</v>
@@ -2579,13 +2591,13 @@
         <v>154565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>517</v>
@@ -2594,13 +2606,13 @@
         <v>346261</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,7 +2668,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2668,13 +2680,13 @@
         <v>2144</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2683,13 +2695,13 @@
         <v>720</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2698,13 +2710,13 @@
         <v>2864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,10 +2731,10 @@
         <v>4282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>116</v>
@@ -2749,13 +2761,13 @@
         <v>6944</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2782,13 @@
         <v>1773</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2785,13 +2797,13 @@
         <v>2944</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -2800,13 +2812,13 @@
         <v>4717</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2833,13 @@
         <v>8914</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -2836,13 +2848,13 @@
         <v>11493</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2851,13 +2863,13 @@
         <v>20407</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2884,13 @@
         <v>43281</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>70</v>
@@ -2887,13 +2899,13 @@
         <v>49035</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>134</v>
@@ -2902,13 +2914,13 @@
         <v>92316</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2988,13 @@
         <v>12734</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2991,13 +3003,13 @@
         <v>8282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -3006,13 +3018,13 @@
         <v>21016</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3039,13 @@
         <v>11670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3045,10 +3057,10 @@
         <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -3057,13 +3069,13 @@
         <v>24666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3090,13 @@
         <v>11337</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -3093,13 +3105,13 @@
         <v>16559</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -3108,13 +3120,13 @@
         <v>27897</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3141,13 @@
         <v>40189</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -3144,13 +3156,13 @@
         <v>42993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -3159,13 +3171,13 @@
         <v>83183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3192,13 @@
         <v>268331</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>351</v>
@@ -3195,13 +3207,13 @@
         <v>237921</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>753</v>
@@ -3210,13 +3222,13 @@
         <v>506252</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,7 +3284,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0643D2B4-2778-4840-9239-58D55D55ACFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CB92E2-E5C4-443D-971A-E36538CC6334}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3308,7 +3320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3415,13 +3427,13 @@
         <v>4489</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3430,13 +3442,13 @@
         <v>7086</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3445,13 +3457,13 @@
         <v>11575</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3478,13 @@
         <v>1669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3481,13 +3493,13 @@
         <v>2339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3496,13 +3508,13 @@
         <v>4009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3529,13 @@
         <v>2567</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -3532,13 +3544,13 @@
         <v>4121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3547,13 +3559,13 @@
         <v>6688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3580,13 @@
         <v>5848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3583,13 +3595,13 @@
         <v>5731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3598,13 +3610,13 @@
         <v>11579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3631,13 @@
         <v>31280</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>48</v>
@@ -3634,13 +3646,13 @@
         <v>33806</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
@@ -3649,13 +3661,13 @@
         <v>65085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3735,13 @@
         <v>15770</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3738,13 +3750,13 @@
         <v>11311</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3753,13 +3765,13 @@
         <v>27081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3786,13 @@
         <v>23814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>35</v>
@@ -3789,13 +3801,13 @@
         <v>24175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -3804,13 +3816,13 @@
         <v>47988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3837,13 @@
         <v>22535</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3840,13 +3852,13 @@
         <v>18083</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -3855,13 +3867,13 @@
         <v>40618</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3888,13 @@
         <v>25828</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3891,13 +3903,13 @@
         <v>22226</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3906,13 +3918,13 @@
         <v>48054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3939,13 @@
         <v>140088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>185</v>
@@ -3942,13 +3954,13 @@
         <v>129624</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>388</v>
@@ -3957,13 +3969,13 @@
         <v>269712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,7 +4031,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4031,13 +4043,13 @@
         <v>4644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4046,13 +4058,13 @@
         <v>4691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4061,13 +4073,13 @@
         <v>9336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4094,13 @@
         <v>4468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -4097,13 +4109,13 @@
         <v>5249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4112,13 +4124,13 @@
         <v>9717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4145,13 @@
         <v>7531</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4148,13 +4160,13 @@
         <v>4195</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -4163,13 +4175,13 @@
         <v>11726</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4196,13 @@
         <v>4214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -4199,13 +4211,13 @@
         <v>10162</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4214,13 +4226,13 @@
         <v>14376</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4247,13 @@
         <v>36496</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>303</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -4250,13 +4262,13 @@
         <v>39120</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -4265,13 +4277,13 @@
         <v>75616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4351,13 @@
         <v>24904</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -4354,13 +4366,13 @@
         <v>23089</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4369,13 +4381,13 @@
         <v>47992</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4402,13 @@
         <v>29951</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -4405,13 +4417,13 @@
         <v>31763</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>323</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -4420,13 +4432,13 @@
         <v>61714</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4453,13 @@
         <v>32633</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -4456,13 +4468,13 @@
         <v>26398</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -4471,13 +4483,13 @@
         <v>59032</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>291</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4504,13 @@
         <v>35890</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -4510,10 +4522,10 @@
         <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -4522,7 +4534,7 @@
         <v>74009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>339</v>
@@ -4635,7 +4647,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +4666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2440C25A-CA0B-43A1-81B7-996E842AE8DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004A4AEB-DA3D-4A18-B0AE-F4588FBBDA24}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4781,10 +4793,10 @@
         <v>351</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4793,10 +4805,10 @@
         <v>549</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>354</v>
@@ -4808,13 +4820,13 @@
         <v>2555</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,10 +4844,10 @@
         <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4844,13 +4856,13 @@
         <v>1970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>361</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4859,13 +4871,13 @@
         <v>5611</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4892,13 @@
         <v>2903</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4895,13 +4907,13 @@
         <v>1276</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4910,13 +4922,13 @@
         <v>4178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4943,13 @@
         <v>2109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4946,13 +4958,13 @@
         <v>3296</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4961,13 +4973,13 @@
         <v>5405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4994,13 @@
         <v>25981</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -4997,13 +5009,13 @@
         <v>24722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -5012,13 +5024,13 @@
         <v>50704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>384</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5098,13 @@
         <v>12133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>387</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5101,13 +5113,13 @@
         <v>10875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -5119,10 +5131,10 @@
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5149,13 @@
         <v>19013</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>394</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -5152,13 +5164,13 @@
         <v>18356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>397</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -5167,13 +5179,13 @@
         <v>37369</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>400</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5200,13 @@
         <v>24231</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5203,13 +5215,13 @@
         <v>15708</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -5221,7 +5233,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>406</v>
@@ -5242,10 +5254,10 @@
         <v>407</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -5254,13 +5266,13 @@
         <v>26291</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5269,13 +5281,13 @@
         <v>52490</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5302,13 @@
         <v>162445</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>257</v>
@@ -5305,13 +5317,13 @@
         <v>178530</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>478</v>
@@ -5320,13 +5332,13 @@
         <v>340975</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5394,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5394,13 +5406,13 @@
         <v>6838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5415,7 +5427,7 @@
         <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>426</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5424,13 +5436,13 @@
         <v>8994</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5457,13 @@
         <v>2095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>429</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>430</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5460,13 +5472,13 @@
         <v>5802</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5475,13 +5487,13 @@
         <v>7897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5508,13 @@
         <v>5609</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>439</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5514,10 +5526,10 @@
         <v>41</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>436</v>
+        <v>231</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5526,13 +5538,13 @@
         <v>13928</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>441</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5559,13 @@
         <v>13071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5562,13 +5574,13 @@
         <v>10301</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5577,13 +5589,13 @@
         <v>23372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5610,13 @@
         <v>50448</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -5613,13 +5625,13 @@
         <v>47820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -5628,13 +5640,13 @@
         <v>98267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5714,13 @@
         <v>20976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>460</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -5717,13 +5729,13 @@
         <v>13581</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -5732,13 +5744,13 @@
         <v>34556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>460</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5765,13 @@
         <v>24748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>462</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>463</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>339</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -5768,13 +5780,13 @@
         <v>26128</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>317</v>
+        <v>470</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -5783,13 +5795,13 @@
         <v>50876</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>471</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5816,13 @@
         <v>32743</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -5819,13 +5831,13 @@
         <v>25302</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>472</v>
+        <v>192</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -5834,13 +5846,13 @@
         <v>58045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5867,13 @@
         <v>41379</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>39</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -5870,13 +5882,13 @@
         <v>39889</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -5885,13 +5897,13 @@
         <v>81267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5918,13 @@
         <v>238874</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -5921,13 +5933,13 @@
         <v>251072</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M26" s="7">
         <v>685</v>
@@ -5936,13 +5948,13 @@
         <v>489946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,7 +6010,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D73D5FFF-820C-4FC8-A9CC-734052C3C2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF14AF28-67A9-4C9A-8524-39682686CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23CAD559-5354-4C6C-8722-5A5BEC3A98C8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D7B4D4C0-2ED1-478D-906E-0D707BC98BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="507">
   <si>
     <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2007 (Tasa respuesta: 47,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1462 +73,1492 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que se riesen de él/ella otros chicos en 2016 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>6,39%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>66,59%</t>
   </si>
   <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>68,55%</t>
   </si>
   <si>
-    <t>71,43%</t>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C6A92E-1E70-4034-9334-122E09AEB332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC1281F-E8ED-4B3F-8F8A-3FE21013F397}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2058,10 +2088,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3967</v>
+        <v>3202</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2073,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>3202</v>
+        <v>3967</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2109,10 +2139,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>2705</v>
+        <v>4102</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2124,10 +2154,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>4102</v>
+        <v>2705</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2160,10 +2190,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>1926</v>
+        <v>2640</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2175,10 +2205,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>2640</v>
+        <v>1926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2211,10 +2241,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>5278</v>
+        <v>6408</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2226,10 +2256,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>6408</v>
+        <v>5278</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2247,49 +2277,49 @@
         <v>11686</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7">
+        <v>34322</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="7">
         <v>50</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>33353</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="7">
-        <v>52</v>
-      </c>
-      <c r="I8" s="7">
-        <v>34322</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -2298,13 +2328,13 @@
         <v>67676</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,34 +2343,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>147</v>
@@ -2349,51 +2379,51 @@
         <v>97904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4360</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>6623</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4360</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2402,13 +2432,13 @@
         <v>10984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,10 +2447,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>4683</v>
+        <v>6232</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2432,10 +2462,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>6232</v>
+        <v>4683</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2444,7 +2474,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -2453,13 +2483,13 @@
         <v>10915</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,34 +2498,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10975</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>7638</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>17</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10975</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -2504,13 +2534,13 @@
         <v>18613</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,34 +2549,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25093</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="7">
         <v>40</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>25997</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="7">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25093</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -2555,64 +2585,64 @@
         <v>51089</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>229</v>
+      </c>
+      <c r="D14" s="7">
+        <v>154565</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="7">
         <v>288</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>191697</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="7">
-        <v>229</v>
-      </c>
-      <c r="I14" s="7">
-        <v>154565</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>517</v>
       </c>
       <c r="N14" s="7">
-        <v>346261</v>
+        <v>346262</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,87 +2651,87 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>301</v>
+      </c>
+      <c r="D15" s="7">
+        <v>201225</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>357</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236638</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>301</v>
-      </c>
-      <c r="I15" s="7">
-        <v>201225</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>658</v>
       </c>
       <c r="N15" s="7">
-        <v>437862</v>
+        <v>437863</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>720</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>2144</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>720</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2710,13 +2740,13 @@
         <v>2864</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,25 +2755,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>4282</v>
+        <v>2662</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>2662</v>
+        <v>4282</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -2761,10 +2791,10 @@
         <v>6944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>121</v>
@@ -2776,31 +2806,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2944</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>1773</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="7">
-        <v>4</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2944</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>126</v>
@@ -2827,10 +2857,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>8914</v>
+        <v>11493</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>130</v>
@@ -2842,10 +2872,10 @@
         <v>132</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>11493</v>
+        <v>8914</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>133</v>
@@ -2875,13 +2905,13 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7">
-        <v>43281</v>
+        <v>49035</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>139</v>
@@ -2893,10 +2923,10 @@
         <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I20" s="7">
-        <v>49035</v>
+        <v>43281</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>142</v>
@@ -2929,34 +2959,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66854</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66854</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>185</v>
@@ -2965,13 +2995,13 @@
         <v>127248</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,31 +3012,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D22" s="7">
-        <v>12734</v>
+        <v>8282</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>19</v>
+      </c>
+      <c r="I22" s="7">
+        <v>12734</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="7">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8282</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>152</v>
@@ -3033,13 +3063,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>11670</v>
+        <v>12996</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>156</v>
@@ -3048,19 +3078,19 @@
         <v>157</v>
       </c>
       <c r="H23" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>12996</v>
+        <v>11670</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -3069,13 +3099,13 @@
         <v>24666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,34 +3114,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16559</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>11337</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16559</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -3120,13 +3150,13 @@
         <v>27897</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,34 +3165,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7">
+        <v>42993</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="7">
         <v>61</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>40189</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="7">
-        <v>64</v>
-      </c>
-      <c r="I25" s="7">
-        <v>42993</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -3171,49 +3201,49 @@
         <v>83183</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>351</v>
+      </c>
+      <c r="D26" s="7">
+        <v>237921</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="7">
         <v>402</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>268331</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="7">
-        <v>351</v>
-      </c>
-      <c r="I26" s="7">
-        <v>237921</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>753</v>
@@ -3222,13 +3252,13 @@
         <v>506252</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,34 +3267,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>473</v>
+      </c>
+      <c r="D27" s="7">
+        <v>318752</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>517</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>344262</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>473</v>
-      </c>
-      <c r="I27" s="7">
-        <v>318752</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>990</v>
@@ -3273,18 +3303,18 @@
         <v>663014</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3303,7 +3333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CB92E2-E5C4-443D-971A-E36538CC6334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F020EE-E19E-4C1D-A550-E792EA08AFD3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3320,7 +3350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3421,34 +3451,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7086</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4489</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="7">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7086</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3457,13 +3487,13 @@
         <v>11575</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,31 +3505,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>1669</v>
+        <v>2339</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>2339</v>
+        <v>1669</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -3508,13 +3538,13 @@
         <v>4009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,34 +3553,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2567</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4121</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3559,13 +3589,13 @@
         <v>6688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,34 +3604,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5731</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="7">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5848</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5731</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -3610,49 +3640,49 @@
         <v>11579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7">
+        <v>33806</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="7">
         <v>43</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>31280</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="7">
-        <v>48</v>
-      </c>
-      <c r="I8" s="7">
-        <v>33806</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>91</v>
@@ -3661,13 +3691,13 @@
         <v>65085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,34 +3706,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>140</v>
@@ -3712,51 +3742,51 @@
         <v>98935</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11311</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>15770</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>11311</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3765,13 +3795,13 @@
         <v>27081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,34 +3810,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7">
+        <v>24175</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="7">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>23814</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="7">
-        <v>35</v>
-      </c>
-      <c r="I11" s="7">
-        <v>24175</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -3816,13 +3846,13 @@
         <v>47988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,34 +3861,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18083</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" s="7">
         <v>33</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>22535</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18083</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>58</v>
@@ -3867,13 +3897,13 @@
         <v>40618</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,34 +3912,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7">
+        <v>22226</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="7">
         <v>38</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>25828</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22226</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3918,49 +3948,49 @@
         <v>48054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>185</v>
+      </c>
+      <c r="D14" s="7">
+        <v>129624</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="7">
         <v>203</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>140088</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" s="7">
-        <v>185</v>
-      </c>
-      <c r="I14" s="7">
-        <v>129624</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>388</v>
@@ -3969,13 +3999,13 @@
         <v>269712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,34 +4014,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>294</v>
+      </c>
+      <c r="D15" s="7">
+        <v>205418</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>228036</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>294</v>
-      </c>
-      <c r="I15" s="7">
-        <v>205418</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>627</v>
@@ -4020,51 +4050,51 @@
         <v>433454</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4691</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>4644</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4691</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4073,13 +4103,13 @@
         <v>9336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,34 +4118,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5249</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="7">
         <v>6</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>4468</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5249</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4124,13 +4154,13 @@
         <v>9717</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,34 +4169,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4195</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="7">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7531</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4195</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -4175,13 +4205,13 @@
         <v>11726</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,34 +4220,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10162</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>4214</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H19" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10162</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4226,49 +4256,49 @@
         <v>14376</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7">
+        <v>39120</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="7">
         <v>54</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>36496</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H20" s="7">
-        <v>55</v>
-      </c>
-      <c r="I20" s="7">
-        <v>39120</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>109</v>
@@ -4277,13 +4307,13 @@
         <v>75616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,34 +4322,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>84</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57353</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -4328,13 +4358,13 @@
         <v>120771</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,34 +4375,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>33</v>
+      </c>
+      <c r="D22" s="7">
+        <v>23089</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" s="7">
         <v>36</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>24904</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="7">
-        <v>33</v>
-      </c>
-      <c r="I22" s="7">
-        <v>23089</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4381,13 +4411,13 @@
         <v>47992</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,31 +4429,31 @@
         <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>29951</v>
+        <v>31763</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
       </c>
       <c r="I23" s="7">
-        <v>31763</v>
+        <v>29951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>90</v>
@@ -4432,13 +4462,13 @@
         <v>61714</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,34 +4477,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>37</v>
+      </c>
+      <c r="D24" s="7">
+        <v>26398</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H24" s="7">
         <v>48</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>32633</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H24" s="7">
-        <v>37</v>
-      </c>
-      <c r="I24" s="7">
-        <v>26398</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -4483,13 +4513,13 @@
         <v>59032</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,34 +4528,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>54</v>
+      </c>
+      <c r="D25" s="7">
+        <v>38118</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="7">
         <v>53</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>35890</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H25" s="7">
-        <v>54</v>
-      </c>
-      <c r="I25" s="7">
-        <v>38118</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>107</v>
@@ -4534,49 +4564,49 @@
         <v>74009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>288</v>
+      </c>
+      <c r="D26" s="7">
+        <v>202550</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H26" s="7">
         <v>300</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>207863</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H26" s="7">
-        <v>288</v>
-      </c>
-      <c r="I26" s="7">
-        <v>202550</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
         <v>588</v>
@@ -4585,13 +4615,13 @@
         <v>410413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,34 +4630,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>457</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321919</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>331241</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>457</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321919</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>939</v>
@@ -4636,18 +4666,18 @@
         <v>653160</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004A4AEB-DA3D-4A18-B0AE-F4588FBBDA24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B037740-2072-42B5-A710-DCFB052CD77D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4683,7 +4713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4784,34 +4814,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>549</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>2005</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>549</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4820,13 +4850,13 @@
         <v>2555</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,34 +4865,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1970</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>3640</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1970</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4871,13 +4901,13 @@
         <v>5611</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,34 +4916,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1276</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2903</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1276</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4922,13 +4952,13 @@
         <v>4178</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,34 +4967,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3296</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2109</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3296</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4973,49 +5003,49 @@
         <v>5405</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24722</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="7">
         <v>36</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>25981</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H8" s="7">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7">
-        <v>24722</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -5024,13 +5054,13 @@
         <v>50704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>394</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,34 +5069,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -5075,51 +5105,51 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10875</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>12133</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10875</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -5131,10 +5161,10 @@
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,34 +5173,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18356</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" s="7">
         <v>26</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>19013</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="7">
-        <v>27</v>
-      </c>
-      <c r="I11" s="7">
-        <v>18356</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -5179,13 +5209,13 @@
         <v>37369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,34 +5224,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15708</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" s="7">
         <v>33</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>24231</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15708</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -5230,13 +5260,13 @@
         <v>39939</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,31 +5278,31 @@
         <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>26198</v>
+        <v>26291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>26291</v>
+        <v>26198</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -5281,49 +5311,49 @@
         <v>52490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>257</v>
+      </c>
+      <c r="D14" s="7">
+        <v>178530</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H14" s="7">
         <v>221</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>162445</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H14" s="7">
-        <v>257</v>
-      </c>
-      <c r="I14" s="7">
-        <v>178530</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>478</v>
@@ -5332,13 +5362,13 @@
         <v>340975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,34 +5377,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>359</v>
+      </c>
+      <c r="D15" s="7">
+        <v>249760</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>244020</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="7">
-        <v>359</v>
-      </c>
-      <c r="I15" s="7">
-        <v>249760</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>692</v>
@@ -5383,51 +5413,51 @@
         <v>493780</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2156</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6838</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2156</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>425</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>439</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5436,13 +5466,13 @@
         <v>8994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,34 +5481,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5802</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2095</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H17" s="7">
-        <v>8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>5802</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5487,13 +5517,13 @@
         <v>7897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>434</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,34 +5532,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8319</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5609</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8319</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>41</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>231</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5538,13 +5568,13 @@
         <v>13928</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>454</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,34 +5583,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H19" s="7">
         <v>18</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>13071</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H19" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>10301</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -5589,49 +5619,49 @@
         <v>23372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>364</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7">
+        <v>47820</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H20" s="7">
         <v>69</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>50448</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H20" s="7">
-        <v>67</v>
-      </c>
-      <c r="I20" s="7">
-        <v>47820</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>136</v>
@@ -5640,13 +5670,13 @@
         <v>98267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,34 +5685,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>212</v>
@@ -5691,13 +5721,13 @@
         <v>152459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,34 +5738,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7">
+        <v>13581</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H22" s="7">
         <v>29</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>20976</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="H22" s="7">
-        <v>19</v>
-      </c>
-      <c r="I22" s="7">
-        <v>13581</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -5744,13 +5774,13 @@
         <v>34556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,34 +5789,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7">
+        <v>26128</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H23" s="7">
         <v>34</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>24748</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H23" s="7">
-        <v>38</v>
-      </c>
-      <c r="I23" s="7">
-        <v>26128</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -5795,13 +5825,13 @@
         <v>50876</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,34 +5840,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>37</v>
+      </c>
+      <c r="D24" s="7">
+        <v>25302</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="7">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>32743</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H24" s="7">
-        <v>37</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25302</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>192</v>
+        <v>488</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -5846,13 +5876,13 @@
         <v>58045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,34 +5891,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7">
+        <v>39889</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" s="7">
         <v>58</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>41379</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H25" s="7">
-        <v>56</v>
-      </c>
-      <c r="I25" s="7">
-        <v>39889</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>485</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -5897,49 +5927,49 @@
         <v>81267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>487</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>359</v>
+      </c>
+      <c r="D26" s="7">
+        <v>251072</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H26" s="7">
         <v>326</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>238874</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="H26" s="7">
-        <v>359</v>
-      </c>
-      <c r="I26" s="7">
-        <v>251072</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="M26" s="7">
         <v>685</v>
@@ -5948,13 +5978,13 @@
         <v>489946</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>505</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,34 +5993,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>355972</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>492</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>358719</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>355972</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1001</v>
@@ -5999,18 +6029,18 @@
         <v>714691</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
